--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\link\thingscloud\simple-database-designer\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A9C803-8345-42CE-BF36-041D400847B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A763962-AB3B-4B04-9A73-42A52DEA9990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>zhouhl</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{6DAF0401-9E0D-4FE9-A064-4EA15D8F0367}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B8BB93B5-FF17-4E34-921A-1F3D3FC5AC07}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{1CB620B5-8F33-4C84-8928-31EA4AB7A866}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{7B233339-4BDC-401D-8463-78D3F3BAFD7C}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>库名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,19 +149,12 @@
     <t>整型(Integer)</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>浮点型(BigDecimal)</t>
   </si>
   <si>
     <t>日期时间(DateTime)</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字符串(String)</t>
   </si>
   <si>
@@ -172,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字符集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tdo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期时间(DateTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,29 +185,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idx_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name,tdo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名tdo索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk_tod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唯一索引(Unique)</t>
   </si>
   <si>
-    <t>tdo唯一索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>todo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +196,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>todo主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通索引(Normal)</t>
@@ -345,6 +306,73 @@
       </rPr>
       <t>(必须）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo3</t>
+  </si>
+  <si>
+    <t>todo4</t>
+  </si>
+  <si>
+    <t>todo5</t>
+  </si>
+  <si>
+    <t>todo6</t>
+  </si>
+  <si>
+    <t>todo7</t>
+  </si>
+  <si>
+    <t>todo8</t>
+  </si>
+  <si>
+    <t>todo9</t>
+  </si>
+  <si>
+    <t>小整型(TinyInt)</t>
+  </si>
+  <si>
+    <t>布尔(Boolean)</t>
+  </si>
+  <si>
+    <t>todo1,todo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo9唯一索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo1-2索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx_todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk_todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo3主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,18 +1344,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AEFA73-3CD8-4E84-9D99-86CEAE2B54C5}">
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
     <col min="8" max="9" width="20.25" style="1"/>
     <col min="10" max="10" width="55.5" style="1" customWidth="1"/>
@@ -1363,17 +1391,17 @@
         <v>19</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>12</v>
@@ -1403,10 +1431,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
@@ -1435,20 +1463,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>11</v>
@@ -1459,26 +1483,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1486,45 +1506,43 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="11"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>30</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1532,22 +1550,18 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="11" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1555,101 +1569,147 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="11" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
@@ -1705,7 +1765,7 @@
     </row>
     <row r="22" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -1721,16 +1781,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
@@ -1744,20 +1804,20 @@
         <v>1</v>
       </c>
       <c r="C24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="41" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="43"/>
       <c r="J24" s="23" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1765,20 +1825,20 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="26" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="28"/>
       <c r="J25" s="11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1906,30 +1966,30 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{DECD4492-29F5-49BA-828F-8CCB6A4D4961}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{6531E2B0-65BE-44DE-9B2E-5E130F50D550}">
       <formula1>"utf8,utf8mb4"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E21" xr:uid="{49A38298-6BBE-4BAD-A374-E58ED30878FE}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E21" xr:uid="{3E75D958-6348-483B-8250-EAF17EECA0BF}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D33" xr:uid="{6FD04898-95A9-47C4-93AA-A79E1A3D3523}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D33" xr:uid="{582C4A8A-01ED-4709-BFD4-454C0F385E27}">
       <formula1>"普通索引(Normal),唯一索引(Unique)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21" xr:uid="{F43FDFAB-13CF-441A-AD8E-D8D70E4670EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21" xr:uid="{F34A0747-674A-4D93-A717-0509D03FFDCF}">
       <formula1>"字符串(String),整型(Integer),长整型(Long),日期时间(DateTime),浮点型(BigDecimal),布尔(Boolean),小整型(TinyInt)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G21" xr:uid="{0FCDEC66-8A08-4A45-AD94-1D411AEC598A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G21" xr:uid="{D62299B5-DFC9-432B-87EC-8ABF3B2FBF2A}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F21" xr:uid="{48368D62-8807-4512-89E6-78EB6F4C2347}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F21" xr:uid="{0FB130FB-4144-48D7-A4D7-E9B608A30778}">
       <formula1>0</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I21" xr:uid="{5511525C-DCDF-45F5-BF95-8AA9B33F2DC9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I21" xr:uid="{EE60F720-4011-4175-8117-9952EA7F8987}">
       <formula1>"是-自动递增,是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E33" xr:uid="{D60587EF-6A5E-4F1F-8B51-2D9E368EE5D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E33" xr:uid="{90DEB96B-2C50-4710-AA7C-C1A71291AD77}">
       <formula1>"BTREE,HASH"</formula1>
     </dataValidation>
   </dataValidations>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\link\thingscloud\simple-database-designer\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A763962-AB3B-4B04-9A73-42A52DEA9990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CC789D-D865-4A15-9773-23EF20607F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>zhouhl</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B8BB93B5-FF17-4E34-921A-1F3D3FC5AC07}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B8BB93B5-FF17-4E34-921A-1F3D3FC5AC07}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{7B233339-4BDC-401D-8463-78D3F3BAFD7C}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{7B233339-4BDC-401D-8463-78D3F3BAFD7C}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>库名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,12 +375,16 @@
     <t>todo4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Simple Database Designer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +447,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -464,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -927,11 +940,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,9 +1055,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1060,6 +1107,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AEFA73-3CD8-4E84-9D99-86CEAE2B54C5}">
-  <dimension ref="B1:J33"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1362,307 +1418,291 @@
     <col min="11" max="16384" width="20.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="24" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+    <row r="5" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+    <row r="7" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>30</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>6</v>
+      <c r="B11" s="2">
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="11" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1670,18 +1710,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1689,18 +1729,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="11" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>12</v>
+      <c r="B17" s="2">
+        <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1708,25 +1748,31 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <v>14</v>
+      <c r="B19" s="3">
+        <v>13</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
@@ -1739,7 +1785,7 @@
     </row>
     <row r="20" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -1750,9 +1796,9 @@
       <c r="I20" s="5"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>16</v>
+    <row r="21" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>15</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
@@ -1764,232 +1810,245 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-    </row>
-    <row r="23" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="20" t="s">
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="21">
+    <row r="25" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="41" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="23" t="s">
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="23" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="11"/>
+      <c r="F26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+    <row r="33" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
         <v>10</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="14"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="14"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="B23:J23"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{6531E2B0-65BE-44DE-9B2E-5E130F50D550}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{6531E2B0-65BE-44DE-9B2E-5E130F50D550}">
       <formula1>"utf8,utf8mb4"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E21" xr:uid="{3E75D958-6348-483B-8250-EAF17EECA0BF}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E22" xr:uid="{3E75D958-6348-483B-8250-EAF17EECA0BF}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D33" xr:uid="{582C4A8A-01ED-4709-BFD4-454C0F385E27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:D34" xr:uid="{582C4A8A-01ED-4709-BFD4-454C0F385E27}">
       <formula1>"普通索引(Normal),唯一索引(Unique)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21" xr:uid="{F34A0747-674A-4D93-A717-0509D03FFDCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D22" xr:uid="{F34A0747-674A-4D93-A717-0509D03FFDCF}">
       <formula1>"字符串(String),整型(Integer),长整型(Long),日期时间(DateTime),浮点型(BigDecimal),布尔(Boolean),小整型(TinyInt)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G21" xr:uid="{D62299B5-DFC9-432B-87EC-8ABF3B2FBF2A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G22" xr:uid="{D62299B5-DFC9-432B-87EC-8ABF3B2FBF2A}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F21" xr:uid="{0FB130FB-4144-48D7-A4D7-E9B608A30778}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F22" xr:uid="{0FB130FB-4144-48D7-A4D7-E9B608A30778}">
       <formula1>0</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I21" xr:uid="{EE60F720-4011-4175-8117-9952EA7F8987}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I22" xr:uid="{EE60F720-4011-4175-8117-9952EA7F8987}">
       <formula1>"是-自动递增,是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E33" xr:uid="{90DEB96B-2C50-4710-AA7C-C1A71291AD77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25:E34" xr:uid="{90DEB96B-2C50-4710-AA7C-C1A71291AD77}">
       <formula1>"BTREE,HASH"</formula1>
     </dataValidation>
   </dataValidations>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\link\thingscloud\simple-database-designer\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CC789D-D865-4A15-9773-23EF20607F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF57CC04-409E-43DD-A93F-BB2C3BF8A23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,21 @@
     <author>zhouhl</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B8BB93B5-FF17-4E34-921A-1F3D3FC5AC07}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{DC0ACC88-069C-41E8-BEB5-33E5149C1FF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>生成 Mybatis Plus代码</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{B8BB93B5-FF17-4E34-921A-1F3D3FC5AC07}">
       <text>
         <r>
           <rPr>
@@ -44,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{7B233339-4BDC-401D-8463-78D3F3BAFD7C}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{7B233339-4BDC-401D-8463-78D3F3BAFD7C}">
       <text>
         <r>
           <rPr>
@@ -64,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>库名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +391,42 @@
   </si>
   <si>
     <t>Simple Database Designer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入默认数据信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -965,11 +1015,107 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -981,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,15 +1144,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,9 +1153,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,6 +1192,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,7 +1300,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,15 +1322,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AEFA73-3CD8-4E84-9D99-86CEAE2B54C5}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J22"/>
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,387 +1624,506 @@
     <col min="11" max="16384" width="20.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="2:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+    </row>
+    <row r="4" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
+    </row>
+    <row r="5" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="2:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="2:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="2:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J8" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="K8" s="32">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="L8" s="33">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33">
+        <v>4</v>
+      </c>
+      <c r="O8" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J9" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="K9" s="28"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="5">
         <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>30</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>5</v>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E11" s="5">
+        <v>40</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>6</v>
+      <c r="J11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="5">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E15" s="5">
         <v>4</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="J15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>4</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
+      <c r="J18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="J19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
-        <v>15</v>
+      <c r="J20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>13</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
@@ -1807,11 +2132,16 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>16</v>
+      <c r="J21" s="21"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>14</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -1820,235 +2150,277 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="J22" s="21"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="2:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="2:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="2:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F26" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="20" t="s">
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21">
+    <row r="27" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="17">
         <v>1</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="40" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="23" t="s">
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
+    <row r="28" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="25" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="11" t="s">
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
+    <row r="29" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
         <v>3</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
-        <v>5</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="2:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="11"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>9</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="2:10" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
         <v>10</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="14"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="10"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="K2:O7"/>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="F34:I34"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{6531E2B0-65BE-44DE-9B2E-5E130F50D550}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{6531E2B0-65BE-44DE-9B2E-5E130F50D550}">
       <formula1>"utf8,utf8mb4"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E22" xr:uid="{3E75D958-6348-483B-8250-EAF17EECA0BF}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E24" xr:uid="{3E75D958-6348-483B-8250-EAF17EECA0BF}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:D34" xr:uid="{582C4A8A-01ED-4709-BFD4-454C0F385E27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D36" xr:uid="{582C4A8A-01ED-4709-BFD4-454C0F385E27}">
       <formula1>"普通索引(Normal),唯一索引(Unique)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D22" xr:uid="{F34A0747-674A-4D93-A717-0509D03FFDCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D24" xr:uid="{F34A0747-674A-4D93-A717-0509D03FFDCF}">
       <formula1>"字符串(String),整型(Integer),长整型(Long),日期时间(DateTime),浮点型(BigDecimal),布尔(Boolean),小整型(TinyInt)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G22" xr:uid="{D62299B5-DFC9-432B-87EC-8ABF3B2FBF2A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G24" xr:uid="{D62299B5-DFC9-432B-87EC-8ABF3B2FBF2A}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F22" xr:uid="{0FB130FB-4144-48D7-A4D7-E9B608A30778}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F24" xr:uid="{0FB130FB-4144-48D7-A4D7-E9B608A30778}">
       <formula1>0</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I22" xr:uid="{EE60F720-4011-4175-8117-9952EA7F8987}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I24" xr:uid="{EE60F720-4011-4175-8117-9952EA7F8987}">
       <formula1>"是-自动递增,是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25:E34" xr:uid="{90DEB96B-2C50-4710-AA7C-C1A71291AD77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:E36" xr:uid="{90DEB96B-2C50-4710-AA7C-C1A71291AD77}">
       <formula1>"BTREE,HASH"</formula1>
     </dataValidation>
   </dataValidations>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\link\thingscloud\simple-database-designer\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF57CC04-409E-43DD-A93F-BB2C3BF8A23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F59C9ED-62D1-4708-BD00-76BBAB6354ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>库名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,15 +418,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RequestMapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1721,7 +1717,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>66</v>
@@ -1730,10 +1726,10 @@
         <v>67</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="38"/>
